--- a/data_analysis/assets/output_files/averages/average_marks.xlsx
+++ b/data_analysis/assets/output_files/averages/average_marks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Course_Code</t>
   </si>
@@ -31,25 +31,28 @@
     <t>Faculty_Name</t>
   </si>
   <si>
-    <t>BSA210</t>
-  </si>
-  <si>
-    <t>BSA211</t>
-  </si>
-  <si>
-    <t>BSA212</t>
-  </si>
-  <si>
-    <t>BSA256</t>
-  </si>
-  <si>
-    <t>BSA257</t>
-  </si>
-  <si>
-    <t>BSA258</t>
-  </si>
-  <si>
-    <t>TMUGE201</t>
+    <t>BSA408</t>
+  </si>
+  <si>
+    <t>BSA410</t>
+  </si>
+  <si>
+    <t>BSA412</t>
+  </si>
+  <si>
+    <t>BSA460</t>
+  </si>
+  <si>
+    <t>BSA461</t>
+  </si>
+  <si>
+    <t>BSA462</t>
+  </si>
+  <si>
+    <t>BSA463</t>
+  </si>
+  <si>
+    <t>TMUGE401</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>70.52</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C2">
-        <v>33.94</v>
+        <v>35.42</v>
       </c>
       <c r="D2">
-        <v>35.52</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -492,13 +495,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>72.48</v>
+        <v>66.47</v>
       </c>
       <c r="C3">
-        <v>33.82</v>
+        <v>34.74</v>
       </c>
       <c r="D3">
-        <v>37.42</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -506,13 +509,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>58.26</v>
+        <v>75.53</v>
       </c>
       <c r="C4">
-        <v>29.82</v>
+        <v>35.37</v>
       </c>
       <c r="D4">
-        <v>26.76</v>
+        <v>40.16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -520,13 +523,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>74.39</v>
+        <v>86.47</v>
       </c>
       <c r="C5">
-        <v>37.67</v>
+        <v>44.42</v>
       </c>
       <c r="D5">
-        <v>35.58</v>
+        <v>42.05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -534,13 +537,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>76.61</v>
+        <v>87.95</v>
       </c>
       <c r="C6">
-        <v>36.88</v>
+        <v>44.58</v>
       </c>
       <c r="D6">
-        <v>39.3</v>
+        <v>43.37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -548,13 +551,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>82.45</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="C7">
-        <v>40.82</v>
+        <v>43.32</v>
       </c>
       <c r="D7">
-        <v>41.06</v>
+        <v>42.47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -562,13 +565,27 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>73.23</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>33.42</v>
+        <v>43.26</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>78.84</v>
+      </c>
+      <c r="C9">
+        <v>35.16</v>
+      </c>
+      <c r="D9">
+        <v>43.68</v>
       </c>
     </row>
   </sheetData>
